--- a/data/trans_camb/P16-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>7.386466909094203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.855320608455595</v>
+        <v>6.855320608455607</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.777125703362398</v>
@@ -664,7 +664,7 @@
         <v>8.009331083656635</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.713434281260744</v>
+        <v>6.713434281260733</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.777875439002099</v>
+        <v>6.917504118654056</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.638145987563128</v>
+        <v>3.060560801661953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.73956227372426</v>
+        <v>1.572657483762187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.425394907075389</v>
+        <v>5.43284743824664</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.966440195834989</v>
+        <v>4.896011839719437</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.848472107002811</v>
+        <v>2.797451960676963</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.410348515550128</v>
+        <v>7.547155258602952</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.079551321385384</v>
+        <v>5.173641508005904</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.950606986578853</v>
+        <v>3.905667134190088</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.14075461424399</v>
+        <v>15.25491348807371</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.97180716075199</v>
+        <v>12.17603448357144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.71020536338025</v>
+        <v>11.92367370376967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.73629465471938</v>
+        <v>11.88445663415465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.50826289143323</v>
+        <v>11.38023992914267</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.607908243236814</v>
+        <v>9.068761309565646</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.35119926478421</v>
+        <v>12.47193215777401</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.63072964615529</v>
+        <v>10.68268726251928</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.723421534965647</v>
+        <v>9.868116435393011</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1211635730996384</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1124509389788798</v>
+        <v>0.11245093897888</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1150187783196534</v>
@@ -769,7 +769,7 @@
         <v>0.1151374526493711</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.09650839921583405</v>
+        <v>0.0965083992158339</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1080737437414779</v>
+        <v>0.1097074284961127</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04334282355390108</v>
+        <v>0.04858983253649878</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.02783536308738291</v>
+        <v>0.02560611377616817</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06932737364302165</v>
+        <v>0.06992313536863592</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06446580623998679</v>
+        <v>0.06273307429153399</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03743354613942949</v>
+        <v>0.03550043313949776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1046505549337914</v>
+        <v>0.1067490763978207</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07187681687183926</v>
+        <v>0.07301388525429044</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.05544207063763008</v>
+        <v>0.05531083811878232</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2592615033105951</v>
+        <v>0.262737811068383</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2043646443471922</v>
+        <v>0.2080596442395914</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.200903534329979</v>
+        <v>0.2058334372164419</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1569069258919726</v>
+        <v>0.1595802634311399</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1550357879737431</v>
+        <v>0.1521252449473638</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1289509379942748</v>
+        <v>0.12243647692068</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.181700974658679</v>
+        <v>0.1838738738657046</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1558844534623113</v>
+        <v>0.1565558710986363</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1430716330807223</v>
+        <v>0.143647224053535</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>13.79591798412561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17.72779247831783</v>
+        <v>17.72779247831782</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>15.66243410468204</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.512886152376833</v>
+        <v>8.598432744795707</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.97642383336515</v>
+        <v>10.8159947892633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.71219617378162</v>
+        <v>14.71666096312635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.30084917052733</v>
+        <v>12.44566531277029</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.056712645862124</v>
+        <v>8.110739851453658</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.262007192153428</v>
+        <v>8.729723457321157</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>10.94885038192101</v>
+        <v>10.98561223400838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.18954318014663</v>
+        <v>10.38312876400545</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.50087478501494</v>
+        <v>12.50311520861814</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.08529814391817</v>
+        <v>14.95405556904977</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.38742850751548</v>
+        <v>17.00555635964372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.26144929861615</v>
+        <v>20.9323786230942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.90481632177275</v>
+        <v>19.1403999346201</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.65017977692951</v>
+        <v>14.9792372317866</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.94182449405753</v>
+        <v>15.11811146714719</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.84571650794484</v>
+        <v>15.80386723809963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.15576099631935</v>
+        <v>14.95720935459904</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.25447124404789</v>
+        <v>17.23173524020077</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.454125666526521</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5835527280260343</v>
+        <v>0.583552728026034</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3388366231057899</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2680504156151307</v>
+        <v>0.2661734873820364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.339768657342688</v>
+        <v>0.3351608480827276</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4504064466189295</v>
+        <v>0.4570190858190145</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2542005138187626</v>
+        <v>0.2574252379970319</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1664016650323971</v>
+        <v>0.1668375887947684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1711291037809686</v>
+        <v>0.1824750246528642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2780035122941634</v>
+        <v>0.2787899079575621</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2570327137559166</v>
+        <v>0.2632504111665062</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3195032403440483</v>
+        <v>0.3198888725259106</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5287948834724</v>
+        <v>0.5219777855812269</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6079768801030693</v>
+        <v>0.5916324175211551</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7484413573317112</v>
+        <v>0.7179588037497511</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4272260845578846</v>
+        <v>0.430081989465699</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3269577731311781</v>
+        <v>0.339442857914016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3361364913966886</v>
+        <v>0.3419174696024448</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4292869978692261</v>
+        <v>0.4288869064106685</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4126120125547311</v>
+        <v>0.4060769890810624</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4700287938754448</v>
+        <v>0.470156659379194</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>8.475707505431689</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>13.94666843760777</v>
+        <v>13.94666843760774</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.200180214949846</v>
+        <v>0.8543019612935047</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.936236470567218</v>
+        <v>4.949844401069552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.84592021282089</v>
+        <v>12.06649530103542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.040972154156076</v>
+        <v>1.605626550192477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.221622650113452</v>
+        <v>-1.805843825154127</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.52086731345901</v>
+        <v>1.312143850391735</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.95267982074506</v>
+        <v>3.420347126999578</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.878419274701515</v>
+        <v>4.136799170342549</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.671489667235406</v>
+        <v>9.864861318316789</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.4852414852762</v>
+        <v>13.6930378185081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.29960886869356</v>
+        <v>17.71461309030129</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.15128172287436</v>
+        <v>24.17812254963001</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.87632995376062</v>
+        <v>15.39545855983424</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.65529497097133</v>
+        <v>10.90310977825161</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.89954784009371</v>
+        <v>12.90597555926095</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.72209586968231</v>
+        <v>12.68905113453243</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.80018686567323</v>
+        <v>13.20881229230194</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.0917035889475</v>
+        <v>17.94336310974312</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.2041205243946159</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3358777156028511</v>
+        <v>0.3358777156028505</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03296315237267055</v>
+        <v>0.02315731366155903</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1367095866576618</v>
+        <v>0.1305285609741564</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3701621749723957</v>
+        <v>0.3232079570807661</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02183863264575526</v>
+        <v>0.029779980165728</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03813750228792468</v>
+        <v>-0.03491492954977216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02890931300970348</v>
+        <v>0.0243610141436995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06830963362146272</v>
+        <v>0.07487129897302761</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08993534504659803</v>
+        <v>0.0946849018503267</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2232397335508956</v>
+        <v>0.2221509572841779</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.437186475323781</v>
+        <v>0.4446260045532718</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5722827997184929</v>
+        <v>0.5952944074323786</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8271092501895413</v>
+        <v>0.8001607628951819</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3146220941077228</v>
+        <v>0.3231121986912475</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2280847973733449</v>
+        <v>0.2282912406077628</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.281134483515309</v>
+        <v>0.2723091004800909</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.323725842314189</v>
+        <v>0.3196443075462397</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.327162855674995</v>
+        <v>0.3356565224213837</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4715309878334115</v>
+        <v>0.461086124640292</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>6.261670588181301</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.753952308742637</v>
+        <v>4.753952308742626</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>10.81758989501928</v>
@@ -1306,7 +1306,7 @@
         <v>7.737793184633074</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.270260718219784</v>
+        <v>8.270260718219797</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.380606703707474</v>
+        <v>7.341520387094941</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.638905121841429</v>
+        <v>6.627150841740785</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.872776071123843</v>
+        <v>9.243279988900877</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.390004475177754</v>
+        <v>9.378957666665698</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.867505877472056</v>
+        <v>3.836024114635835</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.749170269758215</v>
+        <v>2.660832316284728</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>9.079213197349604</v>
+        <v>9.021125207455755</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.802115908253151</v>
+        <v>5.996461928801193</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.531585513710833</v>
+        <v>6.429332982854636</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.48289507661174</v>
+        <v>12.19266004426944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.55331306213689</v>
+        <v>11.51857309681169</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.27940174631807</v>
+        <v>14.40882714276299</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.91671858666136</v>
+        <v>13.93997173017504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.535476190088749</v>
+        <v>8.382736531136047</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.125372164048863</v>
+        <v>7.051464070976228</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.54497651027146</v>
+        <v>12.54744772616878</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.385440381282802</v>
+        <v>9.658189031877848</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.918470748044552</v>
+        <v>10.08311430572838</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1068940762757817</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0811555532258942</v>
+        <v>0.08115555322589402</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2176616107722192</v>
@@ -1411,7 +1411,7 @@
         <v>0.1556927693445835</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.166406592124809</v>
+        <v>0.1664065921248092</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1743797817392585</v>
+        <v>0.1750045174362744</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1597860565268037</v>
+        <v>0.1579276719809752</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2113364301704432</v>
+        <v>0.2208141123651834</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1577330037502323</v>
+        <v>0.1560543557873605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06467955965785202</v>
+        <v>0.06367283439335258</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0456638101919286</v>
+        <v>0.04448324115771603</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1799730239176168</v>
+        <v>0.1782932658750336</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1149254146548724</v>
+        <v>0.118564598643615</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1293370080287778</v>
+        <v>0.1264407792284326</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3157172438814147</v>
+        <v>0.3094259365720332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2941757007427582</v>
+        <v>0.2935798251767062</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3641122407445245</v>
+        <v>0.3648895660366056</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.23988026604862</v>
+        <v>0.2424117015161442</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1481198336747429</v>
+        <v>0.1450945717568031</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1240341523919158</v>
+        <v>0.1237999418414102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.258013802314994</v>
+        <v>0.2577069479481852</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1931775788166082</v>
+        <v>0.1983266287875493</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2043376752607168</v>
+        <v>0.2073051075366499</v>
       </c>
     </row>
     <row r="28">
